--- a/data/EX_MBasic.xlsx
+++ b/data/EX_MBasic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\lpEnergyModels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219037F-8128-4037-A9C5-BF8897376B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD618EF-E913-4476-A6E4-B74BDB4DADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/EX_MBasic.xlsx
+++ b/data/EX_MBasic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\lpEnergyModels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD618EF-E913-4476-A6E4-B74BDB4DADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE53CDE-26BF-4E92-A702-FB04B8B75DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="genCap" sheetId="11" r:id="rId11"/>
     <sheet name="mwp" sheetId="12" r:id="rId12"/>
     <sheet name="load" sheetId="13" r:id="rId13"/>
+    <sheet name="emCap" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>Sheet</t>
   </si>
@@ -188,6 +189,15 @@
   </si>
   <si>
     <t>industrial</t>
+  </si>
+  <si>
+    <t>emCap</t>
+  </si>
+  <si>
+    <t>tCO2</t>
+  </si>
+  <si>
+    <t>Cap on emissions</t>
   </si>
 </sst>
 </file>
@@ -550,15 +560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,6 +793,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -791,7 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -961,6 +991,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5168F50-8664-41ED-9813-89C845A5166B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
